--- a/db_structure/011 GRN Quality Check.xlsx
+++ b/db_structure/011 GRN Quality Check.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -341,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,6 +498,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -533,6 +550,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,7 +746,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +799,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -779,7 +813,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>

--- a/db_structure/011 GRN Quality Check.xlsx
+++ b/db_structure/011 GRN Quality Check.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0D92021-9586-4698-B384-CCFC0647551B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
   <si>
     <t>Document Number</t>
   </si>
@@ -336,12 +337,18 @@
   </si>
   <si>
     <t>gnr_ps_it_dt</t>
+  </si>
+  <si>
+    <t>New Version Mysql</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -405,6 +412,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,9 +767,10 @@
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -767,14 +779,14 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -783,7 +795,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -796,8 +808,11 @@
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>126</v>
       </c>
@@ -810,8 +825,11 @@
       <c r="F7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>127</v>
       </c>
@@ -824,20 +842,23 @@
       <c r="F8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -847,11 +868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,21 +1148,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" t="s">
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>50</v>
       </c>
     </row>
